--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_testing.xlsx
@@ -502,16 +502,16 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8508272412466333</v>
+        <v>0.8464713064713065</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0056945</v>
+        <v>0.01130647</v>
       </c>
       <c r="I2" t="n">
-        <v>0.672906041327094</v>
+        <v>0.6724196855775804</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00168253</v>
+        <v>0.02556654</v>
       </c>
     </row>
     <row r="3">
@@ -570,16 +570,16 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2888275062188106</v>
+        <v>0.3073517786561265</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0200528</v>
+        <v>0.07810277</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5335716914664282</v>
+        <v>0.521163047478837</v>
       </c>
       <c r="J4" t="n">
-        <v>0.00717703</v>
+        <v>0.03420264</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +588,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>LR_sample:20_cf:3_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:20_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C5" t="n">
@@ -598,22 +598,22 @@
         <v>20</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3253158370236526</v>
+        <v>0.2285063855207711</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04643137</v>
+        <v>0.01273875</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5549713444450286</v>
+        <v>0.5049950049950049</v>
       </c>
       <c r="J5" t="n">
-        <v>0.009700830000000001</v>
+        <v>0.02423892</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2755060728744939</v>
+        <v>0.3155174356374288</v>
       </c>
       <c r="H6" t="n">
-        <v>0.02449393</v>
+        <v>0.1105994</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5315342552184658</v>
+        <v>0.5216494032283506</v>
       </c>
       <c r="J6" t="n">
-        <v>0.00416689</v>
+        <v>0.01678585</v>
       </c>
     </row>
     <row r="7">
@@ -656,7 +656,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>LR_sample:22_cf:3_mean_of_2_iterations_only_cf</t>
+          <t>LR_sample:22_cf:1_mean_of_2_iterations_only_cf</t>
         </is>
       </c>
       <c r="C7" t="n">
@@ -666,22 +666,22 @@
         <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3428226363008972</v>
+        <v>0.07554790167496976</v>
       </c>
       <c r="H7" t="n">
-        <v>0.04123533</v>
+        <v>0.03798922</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5566538724433461</v>
+        <v>0.5011041589988958</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00678269</v>
+        <v>0.008465220000000001</v>
       </c>
     </row>
   </sheetData>

--- a/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_testing.xlsx
+++ b/South German Credit/Performance_metrics/model_perf_metrics_mean_of_iterations_only_with_cfs_testing.xlsx
@@ -502,13 +502,13 @@
         <v>700</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8501118568232663</v>
+        <v>0.8487584650112867</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6908091908091908</v>
+        <v>0.6970135128029865</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -570,13 +570,13 @@
         <v>40</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7667436489607391</v>
+        <v>0.7832167832167832</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5784478679215521</v>
+        <v>0.6161995898838004</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -604,13 +604,13 @@
         <v>20</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7009803921568628</v>
+        <v>0.8172043010752688</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.534412955465587</v>
+        <v>0.5919080919080919</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -638,13 +638,13 @@
         <v>44</v>
       </c>
       <c r="G6" t="n">
-        <v>0.76</v>
+        <v>0.7069767441860465</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5244755244755245</v>
+        <v>0.4845154845154845</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -672,13 +672,13 @@
         <v>22</v>
       </c>
       <c r="G7" t="n">
-        <v>0.819672131147541</v>
+        <v>0.7488584474885844</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5444029654555971</v>
+        <v>0.5352016404647983</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
